--- a/data/nqh_repayment_normal_settle_test.xlsx
+++ b/data/nqh_repayment_normal_settle_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/I-G/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555B9640-60F2-5446-A94B-7B297F6D7F96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EACF211-AED1-5441-A65F-90A4C2C8F1AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="460" windowWidth="18560" windowHeight="14560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3760" yWindow="460" windowWidth="18560" windowHeight="14560" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="approved" sheetId="2" r:id="rId1"/>
@@ -137,387 +137,6 @@
  "loanTime": "2019-04-27 23:58:38",
  "loanAmount": 10000,
  "message": null
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "asset": {
-  "sourceCode": "dm_ares",
-  "projectId": "34989648",
-  "sourceProjectId": "26507021",
-  "transactionId": "JON20195266960034668",
-  "amount": 10000,
-  "curOverdueDays": 0,
-  "serviceSn": "1283238942132",
-  "channel": "czb",
-  "repaymentDay": 26,
-  "firstRepaymentDate": "2019-05-29 00:00:00",
-  "lastRepaymentDate": "2019-07-29 00:00:00",
-  "loanTime": "2019-04-29 07:38:15"
- },
- "repaymentPlanList": [{
-  "assetPlanOwner": "financePartner",
-  "sourcePlanId": 60547890,
-  "repaymentPlanType": "Principal",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 1,
-  "planPayDate": "2019-05-29 00:00:00",
-  "curAmount": 1507.47,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }, {
-  "assetPlanOwner": "financePartner",
-  "sourcePlanId": 60547891,
-  "repaymentPlanType": "Interest",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 1,
-  "planPayDate": "2019-05-29 00:00:00",
-  "curAmount": 342.00,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }, {
-  "assetPlanOwner": "financePartner",
-  "sourcePlanId": 60547892,
-  "repaymentPlanType": "Principal",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 2,
-  "planPayDate": "2019-06-29 00:00:00",
-  "curAmount": 1599.36,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }, {
-  "assetPlanOwner": "financePartner",
-  "sourcePlanId": 60547893,
-  "repaymentPlanType": "Interest",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 2,
-  "planPayDate": "2019-06-29 00:00:00",
-  "curAmount": 250.11,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }, {
-  "assetPlanOwner": "financePartner",
-  "sourcePlanId": 60547894,
-  "repaymentPlanType": "Principal",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 3,
-  "planPayDate": "2019-07-29 00:00:00",
-  "curAmount": 1653.01,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }, {
-  "assetPlanOwner": "financePartner",
-  "sourcePlanId": 60547895,
-  "repaymentPlanType": "Interest",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 3,
-  "planPayDate": "2019-07-29 00:00:00",
-  "curAmount": 196.46,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }, {
-  "assetPlanOwner": "financePartner",
-  "sourcePlanId": 60547894,
-  "repaymentPlanType": "Principal",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 4,
-  "planPayDate": "2019-07-29 00:00:00",
-  "curAmount": 1695.15,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }, {
-  "assetPlanOwner": "financePartner",
-  "sourcePlanId": 60547895,
-  "repaymentPlanType": "Interest",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 4,
-  "planPayDate": "2019-07-29 00:00:00",
-  "curAmount": 154.32,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }, {
-  "assetPlanOwner": "financePartner",
-  "sourcePlanId": 60547894,
-  "repaymentPlanType": "Principal",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 5,
-  "planPayDate": "2019-07-29 00:00:00",
-  "curAmount": 1748.44,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }, {
-  "assetPlanOwner": "financePartner",
-  "sourcePlanId": 60547895,
-  "repaymentPlanType": "Interest",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 5,
-  "planPayDate": "2019-07-29 00:00:00",
-  "curAmount": 101.03,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }, {
-  "assetPlanOwner": "financePartner",
-  "sourcePlanId": 60547894,
-  "repaymentPlanType": "Principal",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 6,
-  "planPayDate": "2019-07-29 00:00:00",
-  "curAmount": 1796.57,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }, {
-  "assetPlanOwner": "financePartner",
-  "sourcePlanId": 60547895,
-  "repaymentPlanType": "Interest",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 6,
-  "planPayDate": "2019-07-29 00:00:00",
-  "curAmount": 52.91,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }, {
-  "assetPlanOwner": "foundPartner",
-  "sourcePlanId": 60547890,
-  "repaymentPlanType": "Principal",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 1,
-  "planPayDate": "2019-05-29 00:00:00",
-  "curAmount": 1507.47,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }, {
-  "assetPlanOwner": "foundPartner",
-  "sourcePlanId": 60547891,
-  "repaymentPlanType": "Interest",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 1,
-  "planPayDate": "2019-05-29 00:00:00",
-  "curAmount": 342.00,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }, {
-  "assetPlanOwner": "foundPartner",
-  "sourcePlanId": 60547892,
-  "repaymentPlanType": "Principal",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 2,
-  "planPayDate": "2019-06-29 00:00:00",
-  "curAmount": 1599.36,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }, {
-  "assetPlanOwner": "foundPartner",
-  "sourcePlanId": 60547893,
-  "repaymentPlanType": "Interest",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 2,
-  "planPayDate": "2019-06-29 00:00:00",
-  "curAmount": 250.11,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }, {
-  "assetPlanOwner": "foundPartner",
-  "sourcePlanId": 60547894,
-  "repaymentPlanType": "Principal",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 3,
-  "planPayDate": "2019-07-29 00:00:00",
-  "curAmount": 1653.01,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }, {
-  "assetPlanOwner": "foundPartner",
-  "sourcePlanId": 60547895,
-  "repaymentPlanType": "Interest",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 3,
-  "planPayDate": "2019-07-29 00:00:00",
-  "curAmount": 196.46,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }, {
-  "assetPlanOwner": "foundPartner",
-  "sourcePlanId": 60547894,
-  "repaymentPlanType": "Principal",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 4,
-  "planPayDate": "2019-07-29 00:00:00",
-  "curAmount": 1695.15,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }, {
-  "assetPlanOwner": "foundPartner",
-  "sourcePlanId": 60547895,
-  "repaymentPlanType": "Interest",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 4,
-  "planPayDate": "2019-07-29 00:00:00",
-  "curAmount": 154.32,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }, {
-  "assetPlanOwner": "foundPartner",
-  "sourcePlanId": 60547894,
-  "repaymentPlanType": "Principal",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 5,
-  "planPayDate": "2019-07-29 00:00:00",
-  "curAmount": 1748.44,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }, {
-  "assetPlanOwner": "foundPartner",
-  "sourcePlanId": 60547895,
-  "repaymentPlanType": "Interest",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 5,
-  "planPayDate": "2019-07-29 00:00:00",
-  "curAmount": 101.03,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }, {
-  "assetPlanOwner": "foundPartner",
-  "sourcePlanId": 60547894,
-  "repaymentPlanType": "Principal",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 6,
-  "planPayDate": "2019-07-29 00:00:00",
-  "curAmount": 1796.57,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }, {
-  "assetPlanOwner": "foundPartner",
-  "sourcePlanId": 60547895,
-  "repaymentPlanType": "Interest",
-  "repaymentStatus": "repayment_no",
-  "overdueStatus": "not_overdue",
-  "period": 6,
-  "planPayDate": "2019-07-29 00:00:00",
-  "curAmount": 52.91,
-  "payAmount": 0.00,
-  "reliefAmount": 0.00,
-  "payTime": null,
-  "overdueDays": 0,
-  "institution": "zhtb",
-  "businessType": null
- }],
- "feePlanList": []
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -744,6 +363,387 @@
   "repayMethod": "PI",
   "extensionStatus": "N"
  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"asset": {
+		"sourceCode": "dm_ares",
+		"projectId": "34989648",
+		"sourceProjectId": "26507021",
+		"transactionId": "JON20195266960034668",
+		"amount": 10000,
+		"curOverdueDays": 0,
+		"serviceSn": "1283238942132",
+		"channel": "czb",
+		"repaymentDay": 26,
+		"firstRepaymentDate": "2019-05-29 00:00:00",
+		"lastRepaymentDate": "2019-07-29 00:00:00",
+		"loanTime": "2019-04-29 07:38:15"
+	},
+	"repaymentPlanList": [{
+		"assetPlanOwner": "financePartner",
+		"sourcePlanId": 60547890,
+		"repaymentPlanType": "Principal",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 1,
+		"planPayDate": "2019-05-29 00:00:00",
+		"curAmount": 1507.47,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}, {
+		"assetPlanOwner": "financePartner",
+		"sourcePlanId": 60547891,
+		"repaymentPlanType": "Interest",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 1,
+		"planPayDate": "2019-05-29 00:00:00",
+		"curAmount": 342.00,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}, {
+		"assetPlanOwner": "financePartner",
+		"sourcePlanId": 60547892,
+		"repaymentPlanType": "Principal",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 2,
+		"planPayDate": "2019-06-29 00:00:00",
+		"curAmount": 1599.36,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}, {
+		"assetPlanOwner": "financePartner",
+		"sourcePlanId": 60547893,
+		"repaymentPlanType": "Interest",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 2,
+		"planPayDate": "2019-06-29 00:00:00",
+		"curAmount": 342,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}, {
+		"assetPlanOwner": "financePartner",
+		"sourcePlanId": 60547894,
+		"repaymentPlanType": "Principal",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 3,
+		"planPayDate": "2019-07-29 00:00:00",
+		"curAmount": 1653.01,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}, {
+		"assetPlanOwner": "financePartner",
+		"sourcePlanId": 60547895,
+		"repaymentPlanType": "Interest",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 3,
+		"planPayDate": "2019-07-29 00:00:00",
+		"curAmount": 342,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}, {
+		"assetPlanOwner": "financePartner",
+		"sourcePlanId": 60547894,
+		"repaymentPlanType": "Principal",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 4,
+		"planPayDate": "2019-07-29 00:00:00",
+		"curAmount": 1695.15,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}, {
+		"assetPlanOwner": "financePartner",
+		"sourcePlanId": 60547895,
+		"repaymentPlanType": "Interest",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 4,
+		"planPayDate": "2019-07-29 00:00:00",
+		"curAmount": 342,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}, {
+		"assetPlanOwner": "financePartner",
+		"sourcePlanId": 60547894,
+		"repaymentPlanType": "Principal",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 5,
+		"planPayDate": "2019-07-29 00:00:00",
+		"curAmount": 1748.44,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}, {
+		"assetPlanOwner": "financePartner",
+		"sourcePlanId": 60547895,
+		"repaymentPlanType": "Interest",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 5,
+		"planPayDate": "2019-07-29 00:00:00",
+		"curAmount": 342,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}, {
+		"assetPlanOwner": "financePartner",
+		"sourcePlanId": 60547894,
+		"repaymentPlanType": "Principal",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 6,
+		"planPayDate": "2019-07-29 00:00:00",
+		"curAmount": 1796.57,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}, {
+		"assetPlanOwner": "financePartner",
+		"sourcePlanId": 60547895,
+		"repaymentPlanType": "Interest",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 6,
+		"planPayDate": "2019-07-29 00:00:00",
+		"curAmount": 342,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}, {
+		"assetPlanOwner": "foundPartner",
+		"sourcePlanId": 60547890,
+		"repaymentPlanType": "Principal",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 1,
+		"planPayDate": "2019-05-29 00:00:00",
+		"curAmount": 1507.47,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}, {
+		"assetPlanOwner": "foundPartner",
+		"sourcePlanId": 60547891,
+		"repaymentPlanType": "Interest",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 1,
+		"planPayDate": "2019-05-29 00:00:00",
+		"curAmount": 342.00,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}, {
+		"assetPlanOwner": "foundPartner",
+		"sourcePlanId": 60547892,
+		"repaymentPlanType": "Principal",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 2,
+		"planPayDate": "2019-06-29 00:00:00",
+		"curAmount": 1599.36,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}, {
+		"assetPlanOwner": "foundPartner",
+		"sourcePlanId": 60547893,
+		"repaymentPlanType": "Interest",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 2,
+		"planPayDate": "2019-06-29 00:00:00",
+		"curAmount": 342,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}, {
+		"assetPlanOwner": "foundPartner",
+		"sourcePlanId": 60547894,
+		"repaymentPlanType": "Principal",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 3,
+		"planPayDate": "2019-07-29 00:00:00",
+		"curAmount": 1653.01,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}, {
+		"assetPlanOwner": "foundPartner",
+		"sourcePlanId": 60547895,
+		"repaymentPlanType": "Interest",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 3,
+		"planPayDate": "2019-07-29 00:00:00",
+		"curAmount": 342,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}, {
+		"assetPlanOwner": "foundPartner",
+		"sourcePlanId": 60547894,
+		"repaymentPlanType": "Principal",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 4,
+		"planPayDate": "2019-07-29 00:00:00",
+		"curAmount": 1695.15,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}, {
+		"assetPlanOwner": "foundPartner",
+		"sourcePlanId": 60547895,
+		"repaymentPlanType": "Interest",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 4,
+		"planPayDate": "2019-07-29 00:00:00",
+		"curAmount": 342,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}, {
+		"assetPlanOwner": "foundPartner",
+		"sourcePlanId": 60547894,
+		"repaymentPlanType": "Principal",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 5,
+		"planPayDate": "2019-07-29 00:00:00",
+		"curAmount": 1748.44,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}, {
+		"assetPlanOwner": "foundPartner",
+		"sourcePlanId": 60547895,
+		"repaymentPlanType": "Interest",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 5,
+		"planPayDate": "2019-07-29 00:00:00",
+		"curAmount": 342,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}, {
+		"assetPlanOwner": "foundPartner",
+		"sourcePlanId": 60547894,
+		"repaymentPlanType": "Principal",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 6,
+		"planPayDate": "2019-07-29 00:00:00",
+		"curAmount": 1796.57,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}, {
+		"assetPlanOwner": "foundPartner",
+		"sourcePlanId": 60547895,
+		"repaymentPlanType": "Interest",
+		"repaymentStatus": "repayment_no",
+		"overdueStatus": "not_overdue",
+		"period": 6,
+		"planPayDate": "2019-07-29 00:00:00",
+		"curAmount": 342,
+		"payAmount": 0.00,
+		"reliefAmount": 0.00,
+		"payTime": null,
+		"overdueDays": 0,
+		"institution": "zhtb",
+		"businessType": null
+	}],
+	"feePlanList": []
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1111,7 +1111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1158,7 +1158,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
@@ -1233,7 +1233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1276,7 +1276,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>2000</v>
@@ -1326,16 +1326,16 @@
     </row>
     <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>2000</v>
